--- a/dgl_version/gnn_data/data/故障描述文本.xlsx
+++ b/dgl_version/gnn_data/data/故障描述文本.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4837,6 +4837,1410 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络发送丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络发送丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络发送丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络发送丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的网络发送丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络发送丢包率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络发送丢包率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络发送丢包率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>网络拥塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络接收丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络接收丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络接收丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络接收丢包率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>动态网络条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的网络接收丢包率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络接收丢包率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络接收丢包率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>在网络设备中出现网络接收丢包率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>在网络设备中出现发送带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>在网络设备中出现发送带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>在网络设备中出现发送带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>在网络设备中出现发送带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的发送带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>在网络设备中出现发送带宽异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>在网络设备中出现发送带宽异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>在网络设备中出现发送带宽异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>网络设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>应用程序需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>在网络设备中出现接收带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>在网络设备中出现接收带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>在网络设备中出现接收带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>在网络设备中出现接收带宽波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>网络状况波动</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的接收带宽，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>硬件老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>在网络设备中出现接收带宽异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>在网络设备中出现接收带宽异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>在网络设备中出现接收带宽异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>定期维护</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低内存利用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>应用程序内存泄漏</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低内存利用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>应用程序内存泄漏</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低内存利用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>应用程序内存泄漏</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高内存利用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>应用程序占用过多内存</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高内存利用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>应用程序占用过多内存</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高内存利用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>应用程序占用过多内存</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>在网络设备中出现内存使用波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>意外的内存释放</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>在网络设备中出现内存使用波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>意外的内存释放</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>在网络设备中出现内存使用波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>意外的内存释放</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>在网络设备中出现渐进性内存下降，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>内存模块故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>在网络设备中出现渐进性内存下降，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>内存模块故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>在网络设备中出现渐进性内存下降，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>内存模块故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>在网络设备中出现渐进性内存下降，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>内存模块故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>在网络设备中出现内存异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>在网络设备中出现内存异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>在网络设备中出现内存异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高交换分区使用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>物理内存不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高交换分区使用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>物理内存不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高交换分区使用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>物理内存不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低IOPS，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>存储设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低IOPS，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>存储设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>在网络设备中出现低IOPS，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>存储设备故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高IOPS，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>频繁读写操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高IOPS，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>频繁读写操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>在网络设备中出现高IOPS，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>频繁读写操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>在网络设备中出现IOPS波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>磁盘问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>在网络设备中出现IOPS波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>磁盘问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>在网络设备中出现IOPS波动性，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>磁盘问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>在网络设备中出现渐进性IOPS下降，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>硬件故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>在网络设备中出现渐进性IOPS下降，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>硬件故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>在网络设备中出现渐进性IOPS下降，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>硬件故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>在网络设备中出现IOPS异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>在网络设备中出现IOPS异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常上升，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>应用程序负载过重</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常上升，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>应用程序负载过重</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常上升，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>应用程序负载过重</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常上升，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>应用程序负载过重</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常上升，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>应用程序负载过重</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>动态负载变化</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>动态负载变化</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率波动，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>动态负载变化</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的CPU占用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>应用程序代码漏洞</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的CPU占用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>应用程序代码漏洞</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>在网络设备中出现逐渐增加的CPU占用率，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>应用程序代码漏洞</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>在网络设备中出现CPU占用率异常峰谷，故障原因是什么？</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>定期任务或备份操作</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
